--- a/TestCase V2.xlsx
+++ b/TestCase V2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="9555" windowHeight="4185" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="9555" windowHeight="4185" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="login&amp;logout" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="485">
   <si>
     <t>ID</t>
   </si>
@@ -553,9 +553,6 @@
 2-press TAB to move to next field</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">no error msg will appear </t>
   </si>
   <si>
@@ -1473,13 +1470,136 @@
   </si>
   <si>
     <t>error msg is dispalyed''special character are not allowed''</t>
+  </si>
+  <si>
+    <t>userID:mngrf 
+password:123bb456</t>
+  </si>
+  <si>
+    <t>userID:xyz
+password:123bb456</t>
+  </si>
+  <si>
+    <t>userID:mngrf 
+password:123b</t>
+  </si>
+  <si>
+    <t>customer name: michael</t>
+  </si>
+  <si>
+    <t>customer name: michael123</t>
+  </si>
+  <si>
+    <t>customer name:mi chael</t>
+  </si>
+  <si>
+    <t>mich@el</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> press space before writing the address </t>
+  </si>
+  <si>
+    <t>using special character like: &amp;&amp;</t>
+  </si>
+  <si>
+    <t>cair22o</t>
+  </si>
+  <si>
+    <t>press on space button before writing the city</t>
+  </si>
+  <si>
+    <t>&amp;%</t>
+  </si>
+  <si>
+    <t>OH nick name of ohio</t>
+  </si>
+  <si>
+    <t>asdfg</t>
+  </si>
+  <si>
+    <t>$%</t>
+  </si>
+  <si>
+    <t>ascedffffg</t>
+  </si>
+  <si>
+    <t>"££</t>
+  </si>
+  <si>
+    <t>mich@el22@gmail.com</t>
+  </si>
+  <si>
+    <t>mich@el22@</t>
+  </si>
+  <si>
+    <t>asdosa</t>
+  </si>
+  <si>
+    <t>"£</t>
+  </si>
+  <si>
+    <t>press space before writing first character</t>
+  </si>
+  <si>
+    <t>ascf</t>
+  </si>
+  <si>
+    <t>"£$</t>
+  </si>
+  <si>
+    <t>asdcv</t>
+  </si>
+  <si>
+    <t>press space before first character</t>
+  </si>
+  <si>
+    <t>acvfd</t>
+  </si>
+  <si>
+    <t>"£££</t>
+  </si>
+  <si>
+    <t>£$£$</t>
+  </si>
+  <si>
+    <t>press on space button before writing first character</t>
+  </si>
+  <si>
+    <t>press space between character</t>
+  </si>
+  <si>
+    <t>asss</t>
+  </si>
+  <si>
+    <t>££$</t>
+  </si>
+  <si>
+    <t>qwert</t>
+  </si>
+  <si>
+    <t>£££</t>
+  </si>
+  <si>
+    <t>enter space bbutton before first characer</t>
+  </si>
+  <si>
+    <t>aszx</t>
+  </si>
+  <si>
+    <t>press space button before first character</t>
+  </si>
+  <si>
+    <t>qwer</t>
+  </si>
+  <si>
+    <t>$$$</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1493,6 +1613,15 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="178"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1601,10 +1730,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1667,8 +1797,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1971,7 +2111,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2024,7 +2164,9 @@
       <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="3" t="s">
+        <v>445</v>
+      </c>
       <c r="F2" s="3" t="s">
         <v>27</v>
       </c>
@@ -2046,7 +2188,9 @@
       <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="3" t="s">
+        <v>446</v>
+      </c>
       <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
@@ -2092,7 +2236,9 @@
       <c r="D5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="3" t="s">
+        <v>445</v>
+      </c>
       <c r="F5" s="3" t="s">
         <v>26</v>
       </c>
@@ -2114,7 +2260,9 @@
       <c r="D6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="3" t="s">
+        <v>447</v>
+      </c>
       <c r="F6" s="3" t="s">
         <v>32</v>
       </c>
@@ -2162,8 +2310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2206,22 +2354,22 @@
     </row>
     <row r="2" spans="1:8" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B2" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>435</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>436</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>10</v>
@@ -2229,20 +2377,23 @@
     </row>
     <row r="3" spans="1:8" ht="142.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>439</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>440</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>10</v>
@@ -2250,20 +2401,23 @@
     </row>
     <row r="4" spans="1:8" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>444</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>445</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>10</v>
@@ -2281,8 +2435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="D54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2320,7 +2474,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>6</v>
@@ -2339,6 +2493,9 @@
       <c r="D2" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>448</v>
+      </c>
       <c r="F2" s="3" t="s">
         <v>41</v>
       </c>
@@ -2381,7 +2538,9 @@
       <c r="D4" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="15"/>
+      <c r="E4" s="15" t="s">
+        <v>449</v>
+      </c>
       <c r="F4" s="15" t="s">
         <v>53</v>
       </c>
@@ -2404,7 +2563,9 @@
       <c r="D5" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="E5" s="15"/>
+      <c r="E5" s="15" t="s">
+        <v>448</v>
+      </c>
       <c r="F5" s="15" t="s">
         <v>56</v>
       </c>
@@ -2412,7 +2573,7 @@
         <v>54</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>10</v>
@@ -2429,6 +2590,9 @@
       <c r="D6" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="E6" s="3" t="s">
+        <v>450</v>
+      </c>
       <c r="F6" s="3" t="s">
         <v>92</v>
       </c>
@@ -2436,7 +2600,7 @@
         <v>54</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>10</v>
@@ -2452,6 +2616,9 @@
       </c>
       <c r="D7" s="3" t="s">
         <v>63</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>451</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>64</v>
@@ -2550,6 +2717,9 @@
       <c r="D12" s="3" t="s">
         <v>82</v>
       </c>
+      <c r="E12" s="25">
+        <v>65014</v>
+      </c>
       <c r="F12" s="3" t="s">
         <v>83</v>
       </c>
@@ -2634,7 +2804,7 @@
         <v>91</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I16" s="15" t="s">
         <v>10</v>
@@ -2649,9 +2819,11 @@
         <v>98</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="E17" s="15"/>
+        <v>399</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>452</v>
+      </c>
       <c r="F17" s="15" t="s">
         <v>100</v>
       </c>
@@ -2659,7 +2831,7 @@
         <v>91</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I17" s="15" t="s">
         <v>10</v>
@@ -2676,7 +2848,9 @@
       <c r="D18" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="15"/>
+      <c r="E18" s="15" t="s">
+        <v>453</v>
+      </c>
       <c r="F18" s="15" t="s">
         <v>65</v>
       </c>
@@ -2756,6 +2930,9 @@
       <c r="D22" s="3" t="s">
         <v>118</v>
       </c>
+      <c r="E22" s="3" t="s">
+        <v>454</v>
+      </c>
       <c r="F22" s="3" t="s">
         <v>54</v>
       </c>
@@ -2777,6 +2954,9 @@
       <c r="D23" s="3" t="s">
         <v>121</v>
       </c>
+      <c r="E23" s="3" t="s">
+        <v>453</v>
+      </c>
       <c r="F23" s="3" t="s">
         <v>65</v>
       </c>
@@ -2798,7 +2978,9 @@
       <c r="D24" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="E24" s="15"/>
+      <c r="E24" s="15" t="s">
+        <v>455</v>
+      </c>
       <c r="F24" s="15" t="s">
         <v>100</v>
       </c>
@@ -2806,7 +2988,7 @@
         <v>54</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I24" s="15" t="s">
         <v>10</v>
@@ -2878,6 +3060,9 @@
       <c r="D30" s="3" t="s">
         <v>139</v>
       </c>
+      <c r="E30" s="3">
+        <v>123</v>
+      </c>
       <c r="F30" s="3" t="s">
         <v>145</v>
       </c>
@@ -2899,6 +3084,9 @@
       <c r="D31" s="3" t="s">
         <v>140</v>
       </c>
+      <c r="E31" s="3" t="s">
+        <v>456</v>
+      </c>
       <c r="F31" s="3" t="s">
         <v>146</v>
       </c>
@@ -2920,7 +3108,9 @@
       <c r="D32" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="E32" s="15"/>
+      <c r="E32" s="15" t="s">
+        <v>455</v>
+      </c>
       <c r="F32" s="15" t="s">
         <v>147</v>
       </c>
@@ -2928,7 +3118,7 @@
         <v>145</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I32" s="15" t="s">
         <v>10</v>
@@ -2965,6 +3155,9 @@
       </c>
       <c r="D34" s="3" t="s">
         <v>143</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>457</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>92</v>
@@ -2989,7 +3182,7 @@
     </row>
     <row r="36" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B36" s="17" t="s">
         <v>156</v>
@@ -3000,14 +3193,14 @@
       <c r="D36" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>159</v>
+      <c r="E36" s="3">
+        <v>123456</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>92</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I36" s="9" t="s">
         <v>10</v>
@@ -3015,20 +3208,20 @@
     </row>
     <row r="37" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B37" s="17"/>
       <c r="C37" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="G37" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="I37" s="9" t="s">
         <v>10</v>
@@ -3036,20 +3229,23 @@
     </row>
     <row r="38" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B38" s="17"/>
       <c r="C38" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="I38" s="9" t="s">
         <v>10</v>
@@ -3057,14 +3253,17 @@
     </row>
     <row r="39" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B39" s="17"/>
       <c r="C39" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>173</v>
+      <c r="E39" s="3" t="s">
+        <v>459</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>150</v>
@@ -3078,24 +3277,26 @@
     </row>
     <row r="40" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B40" s="17"/>
       <c r="C40" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D40" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="E40" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="F40" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15" t="s">
+      <c r="G40" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="G40" s="15" t="s">
-        <v>178</v>
-      </c>
       <c r="H40" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I40" s="15" t="s">
         <v>10</v>
@@ -3103,20 +3304,23 @@
     </row>
     <row r="41" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B41" s="17"/>
       <c r="C41" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="E41" s="3">
+        <v>12344444444</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="G41" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>182</v>
       </c>
       <c r="I41" s="9" t="s">
         <v>10</v>
@@ -3124,20 +3328,23 @@
     </row>
     <row r="42" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B42" s="17"/>
       <c r="C42" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="3">
+        <v>123</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="G42" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="I42" s="9" t="s">
         <v>10</v>
@@ -3156,22 +3363,22 @@
     </row>
     <row r="44" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B44" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="F44" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I44" s="9" t="s">
         <v>10</v>
@@ -3179,20 +3386,20 @@
     </row>
     <row r="45" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B45" s="17"/>
       <c r="C45" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="F45" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="G45" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I45" s="9" t="s">
         <v>10</v>
@@ -3200,20 +3407,23 @@
     </row>
     <row r="46" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B46" s="17"/>
       <c r="C46" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>199</v>
+      <c r="E46" s="3" t="s">
+        <v>460</v>
       </c>
       <c r="F46" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="I46" s="9" t="s">
         <v>10</v>
@@ -3221,20 +3431,23 @@
     </row>
     <row r="47" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B47" s="17"/>
       <c r="C47" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="E47" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="I47" s="9" t="s">
         <v>10</v>
@@ -3242,24 +3455,26 @@
     </row>
     <row r="48" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B48" s="17"/>
       <c r="C48" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D48" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="E48" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="F48" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15" t="s">
+      <c r="G48" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="G48" s="15" t="s">
-        <v>208</v>
-      </c>
       <c r="H48" s="15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I48" s="15" t="s">
         <v>57</v>
@@ -3267,20 +3482,23 @@
     </row>
     <row r="49" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B49" s="17"/>
       <c r="C49" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="E49" s="3">
+        <v>1.23456789E+23</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>212</v>
-      </c>
       <c r="G49" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I49" s="9" t="s">
         <v>10</v>
@@ -3288,17 +3506,20 @@
     </row>
     <row r="50" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B50" s="17"/>
       <c r="C50" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="E50" s="3">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>91</v>
@@ -3320,22 +3541,22 @@
     </row>
     <row r="52" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="D52" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="F52" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>222</v>
       </c>
       <c r="I52" s="9" t="s">
         <v>10</v>
@@ -3343,19 +3564,19 @@
     </row>
     <row r="53" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C53" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="F53" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>226</v>
-      </c>
       <c r="G53" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I53" s="9" t="s">
         <v>10</v>
@@ -3363,19 +3584,22 @@
     </row>
     <row r="54" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C54" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>229</v>
+      <c r="E54" s="24" t="s">
+        <v>462</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I54" s="9" t="s">
         <v>10</v>
@@ -3383,23 +3607,25 @@
     </row>
     <row r="55" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C55" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="D55" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="D55" s="15" t="s">
+      <c r="E55" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="G55" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>233</v>
-      </c>
       <c r="H55" s="15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I55" s="15" t="s">
         <v>10</v>
@@ -3407,19 +3633,22 @@
     </row>
     <row r="56" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C56" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="E56" s="24" t="s">
+        <v>463</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="G56" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I56" s="9" t="s">
         <v>10</v>
@@ -3438,22 +3667,22 @@
     </row>
     <row r="58" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B58" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="D58" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="F58" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="G58" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>57</v>
@@ -3461,20 +3690,20 @@
     </row>
     <row r="59" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="F59" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="G59" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>248</v>
       </c>
       <c r="I59" s="9" t="s">
         <v>10</v>
@@ -3502,6 +3731,11 @@
     <mergeCell ref="B20:B24"/>
     <mergeCell ref="B28:B34"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E7" r:id="rId1"/>
+    <hyperlink ref="E54" r:id="rId2"/>
+    <hyperlink ref="E56" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3510,8 +3744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:I6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3550,7 +3784,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>6</v>
@@ -3558,18 +3792,20 @@
     </row>
     <row r="2" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>286</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C2" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3">
+        <v>19860</v>
+      </c>
       <c r="F2" s="3" t="s">
         <v>92</v>
       </c>
@@ -3583,21 +3819,21 @@
     </row>
     <row r="3" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>293</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="9" t="s">
@@ -3606,21 +3842,23 @@
     </row>
     <row r="4" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>464</v>
+      </c>
       <c r="F4" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="9" t="s">
@@ -3629,16 +3867,18 @@
     </row>
     <row r="5" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>465</v>
+      </c>
       <c r="F5" s="3" t="s">
         <v>150</v>
       </c>
@@ -3652,24 +3892,26 @@
     </row>
     <row r="6" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="E6" s="15"/>
+      <c r="E6" s="15" t="s">
+        <v>466</v>
+      </c>
       <c r="F6" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>91</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>10</v>
@@ -3677,21 +3919,21 @@
     </row>
     <row r="7" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>305</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>307</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="9" t="s">
@@ -3711,7 +3953,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3755,19 +3997,19 @@
     </row>
     <row r="2" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C2" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>253</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>91</v>
@@ -3778,20 +4020,20 @@
     </row>
     <row r="3" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>257</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>10</v>
@@ -3799,24 +4041,26 @@
     </row>
     <row r="4" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="E4" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>260</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
-        <v>261</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>91</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>10</v>
@@ -3824,45 +4068,50 @@
     </row>
     <row r="5" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="26" t="s">
+        <v>468</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="57" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>266</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="E6" s="15"/>
+      <c r="E6" s="15" t="s">
+        <v>466</v>
+      </c>
       <c r="F6" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>10</v>
@@ -3891,8 +4140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView topLeftCell="C6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="B6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3930,7 +4179,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>6</v>
@@ -3938,16 +4187,16 @@
     </row>
     <row r="2" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C2" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>271</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>92</v>
@@ -3961,24 +4210,24 @@
     </row>
     <row r="3" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>273</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>274</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>91</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>10</v>
@@ -3986,18 +4235,20 @@
     </row>
     <row r="4" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="E4" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>278</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
-        <v>279</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>91</v>
@@ -4011,24 +4262,26 @@
     </row>
     <row r="5" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="E5" s="15"/>
+      <c r="E5" s="15" t="s">
+        <v>469</v>
+      </c>
       <c r="F5" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>91</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>10</v>
@@ -4036,24 +4289,26 @@
     </row>
     <row r="6" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>284</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
-        <v>285</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>91</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>10</v>
@@ -4072,19 +4327,19 @@
     </row>
     <row r="8" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>308</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="C8" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>311</v>
-      </c>
       <c r="F8" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>91</v>
@@ -4095,24 +4350,24 @@
     </row>
     <row r="9" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>313</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>314</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>91</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I9" s="15" t="s">
         <v>10</v>
@@ -4120,24 +4375,26 @@
     </row>
     <row r="10" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="E10" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>318</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15" t="s">
-        <v>319</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>91</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I10" s="15" t="s">
         <v>10</v>
@@ -4145,16 +4402,18 @@
     </row>
     <row r="11" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="E11" s="15"/>
+      <c r="E11" s="15" t="s">
+        <v>472</v>
+      </c>
       <c r="F11" s="15" t="s">
         <v>146</v>
       </c>
@@ -4170,24 +4429,26 @@
     </row>
     <row r="12" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="E12" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>326</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15" t="s">
-        <v>327</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>91</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I12" s="15" t="s">
         <v>10</v>
@@ -4195,17 +4456,20 @@
     </row>
     <row r="13" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="26">
+        <v>-2000</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>331</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>91</v>
@@ -4239,7 +4503,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4273,7 +4537,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>6</v>
@@ -4281,23 +4545,23 @@
     </row>
     <row r="2" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>332</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C2" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>334</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>335</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="9" t="s">
@@ -4306,21 +4570,21 @@
     </row>
     <row r="3" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>338</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>339</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="9" t="s">
@@ -4329,21 +4593,23 @@
     </row>
     <row r="4" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>476</v>
+      </c>
       <c r="F4" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="9" t="s">
@@ -4352,16 +4618,18 @@
     </row>
     <row r="5" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="E5" s="3"/>
+        <v>403</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>473</v>
+      </c>
       <c r="F5" s="3" t="s">
         <v>146</v>
       </c>
@@ -4375,24 +4643,26 @@
     </row>
     <row r="6" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="E6" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
-        <v>350</v>
-      </c>
       <c r="G6" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>10</v>
@@ -4400,24 +4670,26 @@
     </row>
     <row r="7" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="E7" s="15"/>
+      <c r="E7" s="15" t="s">
+        <v>475</v>
+      </c>
       <c r="F7" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I7" s="15" t="s">
         <v>10</v>
@@ -4425,21 +4697,21 @@
     </row>
     <row r="8" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>355</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>356</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="9" t="s">
@@ -4470,7 +4742,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4501,7 +4773,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -4509,23 +4781,23 @@
     </row>
     <row r="2" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>359</v>
-      </c>
       <c r="C2" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>334</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>335</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="9" t="s">
@@ -4534,21 +4806,21 @@
     </row>
     <row r="3" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="9" t="s">
@@ -4557,21 +4829,23 @@
     </row>
     <row r="4" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>464</v>
+      </c>
       <c r="F4" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="9" t="s">
@@ -4580,16 +4854,18 @@
     </row>
     <row r="5" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>477</v>
+      </c>
       <c r="F5" s="3" t="s">
         <v>146</v>
       </c>
@@ -4603,24 +4879,26 @@
     </row>
     <row r="6" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="E6" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
-        <v>350</v>
-      </c>
       <c r="G6" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>10</v>
@@ -4628,21 +4906,23 @@
     </row>
     <row r="7" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="E7" s="15"/>
+      <c r="E7" s="15" t="s">
+        <v>475</v>
+      </c>
       <c r="F7" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H7" s="15" t="s">
         <v>100</v>
@@ -4653,21 +4933,21 @@
     </row>
     <row r="8" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>355</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>356</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="9" t="s">
@@ -4686,8 +4966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4720,7 +5000,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>6</v>
@@ -4728,16 +5008,16 @@
     </row>
     <row r="2" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>366</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C2" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>368</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>369</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
@@ -4753,21 +5033,21 @@
     </row>
     <row r="3" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>371</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>372</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="9" t="s">
@@ -4776,21 +5056,23 @@
     </row>
     <row r="4" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="E4" s="3"/>
+        <v>342</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>478</v>
+      </c>
       <c r="F4" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="9" t="s">
@@ -4799,21 +5081,23 @@
     </row>
     <row r="5" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>379</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="9" t="s">
@@ -4822,24 +5106,26 @@
     </row>
     <row r="6" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D6" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
-        <v>382</v>
-      </c>
       <c r="G6" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>57</v>
@@ -4847,21 +5133,21 @@
     </row>
     <row r="7" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>384</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>385</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="9" t="s">
@@ -4881,7 +5167,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4918,16 +5204,16 @@
     </row>
     <row r="2" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>368</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>92</v>
@@ -4941,20 +5227,20 @@
     </row>
     <row r="3" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>10</v>
@@ -4962,20 +5248,20 @@
     </row>
     <row r="4" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>10</v>
@@ -4983,20 +5269,20 @@
     </row>
     <row r="5" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>10</v>
@@ -5004,24 +5290,24 @@
     </row>
     <row r="6" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>10</v>
@@ -5040,16 +5326,16 @@
     </row>
     <row r="8" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>432</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>411</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>412</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>92</v>
@@ -5063,24 +5349,26 @@
     </row>
     <row r="9" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>415</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="E9" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>416</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15" t="s">
-        <v>417</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>91</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I9" s="15" t="s">
         <v>10</v>
@@ -5088,24 +5376,26 @@
     </row>
     <row r="10" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>419</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="E10" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>420</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15" t="s">
-        <v>421</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>91</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I10" s="15" t="s">
         <v>10</v>
@@ -5113,24 +5403,24 @@
     </row>
     <row r="11" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>424</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>425</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>91</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I11" s="15" t="s">
         <v>10</v>
@@ -5138,24 +5428,26 @@
     </row>
     <row r="12" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B12" s="22"/>
       <c r="C12" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>427</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="E12" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>428</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15" t="s">
-        <v>429</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>91</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I12" s="15" t="s">
         <v>10</v>
